--- a/biology/Botanique/Parc_de_Kinuta/Parc_de_Kinuta.xlsx
+++ b/biology/Botanique/Parc_de_Kinuta/Parc_de_Kinuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de Kinuta (砧公園, Kinuta Kōen?) situé dans l'arrondissement de Setagaya à Tokyo, couvre une superficie totale de 39 ha, dont 240 000 m2 de pelouse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de Kinuta (砧公園, Kinuta Kōen?) situé dans l'arrondissement de Setagaya à Tokyo, couvre une superficie totale de 39 ha, dont 240 000 m2 de pelouse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Floraison des cerisiers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Kinuta est réputé comme site d'observation de la floraison des cerisiers (sakura). Il en possède au moins trois variétés - Someyoshino (photo), Yamazakura et Yaezakura - ce qui rend la saison d'observation relativement longue (plus de deux semaines).
 </t>
@@ -542,9 +556,11 @@
           <t>Installations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe également des terrains de baseball, de football, des pistes de cyclisme et le proche musée d'art de Setagaya[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe également des terrains de baseball, de football, des pistes de cyclisme et le proche musée d'art de Setagaya.
 La piste cycliste de 1 667 m se double d'un parcours de marche en dehors des horaires 9 h-16 h.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'autoroute Tōmei (東名高速道路, Tōmei Kōsoku Dōro) longe le côté sud; Kampachi (環八, l'anneau routier n°.8), le côté est. L'autoroute Tōmei se termine à cette intersection.
 </t>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc est inauguré le 1er avril 1957[1]. Après la Guerre du Pacifique (Seconde Guerre mondiale), il sert de parcours pour un golf public. Celui-ci est plus tard fermé afin de créer l'actuel parc Kinuta.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est inauguré le 1er avril 1957. Après la Guerre du Pacifique (Seconde Guerre mondiale), il sert de parcours pour un golf public. Celui-ci est plus tard fermé afin de créer l'actuel parc Kinuta.
 </t>
         </is>
       </c>
